--- a/data/542/BOKFS/Monthly_FS.xlsx
+++ b/data/542/BOKFS/Monthly_FS.xlsx
@@ -1161,8 +1161,11 @@
     <col min="744" max="744" width="13.0" customWidth="true"/>
     <col min="745" max="745" width="13.0" customWidth="true"/>
     <col min="746" max="746" width="13.0" customWidth="true"/>
-    <col min="747" max="747" width="4.0" customWidth="true"/>
-    <col min="748" max="748" width="4.0" customWidth="true"/>
+    <col min="747" max="747" width="13.0" customWidth="true"/>
+    <col min="748" max="748" width="13.0" customWidth="true"/>
+    <col min="749" max="749" width="13.0" customWidth="true"/>
+    <col min="750" max="750" width="4.0" customWidth="true"/>
+    <col min="751" max="751" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4906,6 +4909,21 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="ABU1" s="2" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="ABV1" s="2" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="ABW1" s="2" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7154,12 +7172,21 @@
       <c r="ABR2" s="3" t="n">
         <v>164193.2</v>
       </c>
-      <c r="ABS2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT2" s="1" t="inlineStr">
+      <c r="ABS2" s="3" t="n">
+        <v>165785.6</v>
+      </c>
+      <c r="ABT2" s="3" t="n">
+        <v>167571.9</v>
+      </c>
+      <c r="ABU2" s="3" t="n">
+        <v>173641.6</v>
+      </c>
+      <c r="ABV2" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9412,12 +9439,21 @@
       <c r="ABR3" s="3" t="n">
         <v>164180.0</v>
       </c>
-      <c r="ABS3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT3" s="1" t="inlineStr">
+      <c r="ABS3" s="3" t="n">
+        <v>165022.2</v>
+      </c>
+      <c r="ABT3" s="3" t="n">
+        <v>166667.7</v>
+      </c>
+      <c r="ABU3" s="3" t="n">
+        <v>170023.4</v>
+      </c>
+      <c r="ABV3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11668,14 +11704,23 @@
         <v>1335457.0</v>
       </c>
       <c r="ABR4" s="3" t="n">
-        <v>1333678.1</v>
-      </c>
-      <c r="ABS4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT4" s="1" t="inlineStr">
+        <v>1333677.0</v>
+      </c>
+      <c r="ABS4" s="3" t="n">
+        <v>1342150.1</v>
+      </c>
+      <c r="ABT4" s="3" t="n">
+        <v>1372336.6</v>
+      </c>
+      <c r="ABU4" s="3" t="n">
+        <v>1344918.2</v>
+      </c>
+      <c r="ABV4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14166,14 +14211,23 @@
         <v>1328615.1</v>
       </c>
       <c r="ABR5" s="3" t="n">
-        <v>1334026.5</v>
-      </c>
-      <c r="ABS5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT5" s="1" t="inlineStr">
+        <v>1334024.4</v>
+      </c>
+      <c r="ABS5" s="3" t="n">
+        <v>1340634.6</v>
+      </c>
+      <c r="ABT5" s="3" t="n">
+        <v>1346579.7</v>
+      </c>
+      <c r="ABU5" s="3" t="n">
+        <v>1352771.6</v>
+      </c>
+      <c r="ABV5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16424,14 +16478,23 @@
         <v>3503617.5</v>
       </c>
       <c r="ABR6" s="3" t="n">
-        <v>3563925.5</v>
-      </c>
-      <c r="ABS6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT6" s="1" t="inlineStr">
+        <v>3563231.3</v>
+      </c>
+      <c r="ABS6" s="3" t="n">
+        <v>3596418.3</v>
+      </c>
+      <c r="ABT6" s="3" t="n">
+        <v>3613687.6</v>
+      </c>
+      <c r="ABU6" s="3" t="n">
+        <v>3629711.3</v>
+      </c>
+      <c r="ABV6" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19306,14 +19369,23 @@
         <v>3513680.6</v>
       </c>
       <c r="ABR7" s="3" t="n">
-        <v>3544235.1</v>
-      </c>
-      <c r="ABS7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT7" s="1" t="inlineStr">
+        <v>3543363.7</v>
+      </c>
+      <c r="ABS7" s="3" t="n">
+        <v>3594723.2</v>
+      </c>
+      <c r="ABT7" s="3" t="n">
+        <v>3620057.4</v>
+      </c>
+      <c r="ABU7" s="3" t="n">
+        <v>3647048.7</v>
+      </c>
+      <c r="ABV7" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22044,14 +22116,23 @@
         <v>4784728.5</v>
       </c>
       <c r="ABR8" s="3" t="n">
-        <v>4837613.6</v>
-      </c>
-      <c r="ABS8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT8" s="1" t="inlineStr">
+        <v>4837638.2</v>
+      </c>
+      <c r="ABS8" s="3" t="n">
+        <v>4882448.5</v>
+      </c>
+      <c r="ABT8" s="3" t="n">
+        <v>4922888.4</v>
+      </c>
+      <c r="ABU8" s="3" t="n">
+        <v>4937135.3</v>
+      </c>
+      <c r="ABV8" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24926,14 +25007,23 @@
         <v>4831463.5</v>
       </c>
       <c r="ABR9" s="3" t="n">
-        <v>4852992.5</v>
-      </c>
-      <c r="ABS9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT9" s="1" t="inlineStr">
+        <v>4853015.6</v>
+      </c>
+      <c r="ABS9" s="3" t="n">
+        <v>4914762.8</v>
+      </c>
+      <c r="ABT9" s="3" t="n">
+        <v>4948413.9</v>
+      </c>
+      <c r="ABU9" s="3" t="n">
+        <v>4985537.6</v>
+      </c>
+      <c r="ABV9" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27450,12 +27540,21 @@
       <c r="ABR10" s="3" t="n">
         <v>1823227.4</v>
       </c>
-      <c r="ABS10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT10" s="1" t="inlineStr">
+      <c r="ABS10" s="3" t="n">
+        <v>1837331.8</v>
+      </c>
+      <c r="ABT10" s="3" t="n">
+        <v>1844603.9</v>
+      </c>
+      <c r="ABU10" s="3" t="n">
+        <v>1849102.2</v>
+      </c>
+      <c r="ABV10" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30655,7 +30754,16 @@
       <c r="ABS11" s="5" t="n">
         <v>1.0</v>
       </c>
-      <c r="ABT11" s="1" t="inlineStr">
+      <c r="ABT11" s="5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="ABU11" s="5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="ABV11" s="5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="ABW11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33559,7 +33667,16 @@
       <c r="ABS12" s="6" t="n">
         <v>2.492</v>
       </c>
-      <c r="ABT12" s="1" t="inlineStr">
+      <c r="ABT12" s="6" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="ABU12" s="6" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="ABV12" s="6" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="ABW12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -36563,7 +36680,16 @@
       <c r="ABS13" s="5" t="n">
         <v>1.17</v>
       </c>
-      <c r="ABT13" s="1" t="inlineStr">
+      <c r="ABT13" s="5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="ABU13" s="5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="ABV13" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="ABW13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -39563,7 +39689,16 @@
       <c r="ABS14" s="6" t="n">
         <v>0.796</v>
       </c>
-      <c r="ABT14" s="1" t="inlineStr">
+      <c r="ABT14" s="6" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="ABU14" s="6" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="ABV14" s="6" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="ABW14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -42692,12 +42827,21 @@
       <c r="ABR15" s="5" t="n">
         <v>1.44</v>
       </c>
-      <c r="ABS15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT15" s="1" t="inlineStr">
+      <c r="ABS15" s="5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="ABT15" s="5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="ABU15" s="5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="ABV15" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABW15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
